--- a/data/trans_camb/P16A17-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Dificultad-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>-0.09191901717122462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1264964713179335</v>
+        <v>0.1264964713179337</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.443067476516767</v>
+        <v>-1.365842188625282</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8874817275822545</v>
+        <v>-0.8079482019130606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6597593968395765</v>
+        <v>-0.6797701248660749</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1395575431944557</v>
+        <v>-0.1472456083226098</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5932187863059746</v>
+        <v>0.5619129497277117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8797187610073908</v>
+        <v>0.9139221168922615</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-0.134310337392881</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.184834262425504</v>
+        <v>0.1848342624255043</v>
       </c>
     </row>
     <row r="8">
@@ -655,10 +655,10 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7987761684013763</v>
+        <v>-0.7568220952790629</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7277789437005988</v>
+        <v>-0.6665262758208224</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7241498690166098</v>
+        <v>0.6700555843277901</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.284171113629935</v>
+        <v>2.00692118431868</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.605769560536794</v>
+        <v>2.620666756610578</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.428942426140679</v>
+        <v>-0.3352527539695603</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8803409003857328</v>
+        <v>-0.9893250173097754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5913931301116125</v>
+        <v>-0.5872683441134293</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.190419821083812</v>
+        <v>1.220252219969171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2681123250188833</v>
+        <v>0.3048440143082219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6233839175166355</v>
+        <v>0.6873447592592149</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5721771735953126</v>
+        <v>-0.5309130875843293</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6772481507799462</v>
+        <v>-0.6538398416390222</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.191958719028649</v>
+        <v>4.618179062927137</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.868866890606689</v>
+        <v>1.838694162582036</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.353945337207497</v>
+        <v>2.800673056181035</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.307400904883109</v>
+        <v>-1.359748480394091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8974385884381363</v>
+        <v>-0.9780100901314842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.29702890971752</v>
+        <v>-1.341543141137779</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2460210143961889</v>
+        <v>0.2521762997677651</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.98901309791623</v>
+        <v>0.8613271976712409</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04274058514387189</v>
+        <v>0.03496099738842799</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9094207434016649</v>
+        <v>-0.8853250166141502</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6806840477284604</v>
+        <v>-0.7017987357268604</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8673873343697612</v>
+        <v>-0.8644027215844301</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6568510898934431</v>
+        <v>0.8623406639514829</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.878318216437985</v>
+        <v>1.564038710287312</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1754286005907578</v>
+        <v>0.3251894705094747</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.445420916224284</v>
+        <v>-0.3310457137454904</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.044936993032798</v>
+        <v>-1.718039198472344</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.758312651763149</v>
+        <v>-1.900684301736838</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.764674047079096</v>
+        <v>2.577414737735239</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1331807605869929</v>
+        <v>0.1632140518797942</v>
       </c>
     </row>
     <row r="25">
@@ -1002,7 +1002,7 @@
         <v>-0.2141878961468386</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.2329123518594813</v>
+        <v>-0.2329123518594812</v>
       </c>
     </row>
     <row r="29">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.500998696752627</v>
+        <v>-0.5285627364489316</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6027448703989728</v>
+        <v>-0.6007255539607783</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6369777079103996</v>
+        <v>-0.6494140553526245</v>
       </c>
     </row>
     <row r="30">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3497136565500299</v>
+        <v>0.2839901756715513</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1702411276153254</v>
+        <v>0.1484321421074057</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.08766426509473899</v>
+        <v>0.06780111453446382</v>
       </c>
     </row>
     <row r="31">
@@ -1053,7 +1053,7 @@
         <v>-0.2945927933726855</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3203463014466848</v>
+        <v>-0.3203463014466846</v>
       </c>
     </row>
     <row r="32">
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5491490754000578</v>
+        <v>-0.5482518283866192</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.644578421400279</v>
+        <v>-0.6424277391163639</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6309461982914992</v>
+        <v>-0.6505035584415246</v>
       </c>
     </row>
     <row r="33">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6636421326677676</v>
+        <v>0.5854292067722002</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2887238540183649</v>
+        <v>0.2922862253167191</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1770476020237613</v>
+        <v>0.1474105105994392</v>
       </c>
     </row>
     <row r="34">
